--- a/tests/testcase/autoCliTestCase.xlsx
+++ b/tests/testcase/autoCliTestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>ID</t>
   </si>
@@ -182,6 +182,51 @@
   </si>
   <si>
     <t>lockBtc</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>cross chain btc redeem transaction</t>
+  </si>
+  <si>
+    <t>redeemBtc</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>cross chain btc revoke transaction</t>
+  </si>
+  <si>
+    <t>revokeBtc</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>cross chain wbtc lock transaction</t>
+  </si>
+  <si>
+    <t>lockWbtc</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>cross chain wbtc redeem transaction</t>
+  </si>
+  <si>
+    <t>redeemWbtc</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>cross chain wbtc revoke transaction</t>
+  </si>
+  <si>
+    <t>revokeWbtc</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1371,10 @@
   <sheetPr/>
   <dimension ref="A1:R1048481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1658,13 +1703,122 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="13"/>
+    </row>
     <row r="1048481" hidden="1"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14:B17 B18:B1048576">
       <formula1>"Sunny, Rainy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14:C17 C18:C1048576">
       <formula1>"inBound, outBound"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
@@ -1673,10 +1827,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3 L4:L1048576">
       <formula1>"0, 1, ETH, MKR, DAI, ZRX, WCT, WETH, WMKR, WDAI, WZRX, WWCT, WAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F8 F11 F12 F1:F6 F9:F10 F13:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F8 F11 F12 F13 F14 F15 F16 F17 F1:F6 F9:F10 F18:F1048576">
       <formula1>"BTC, WAN,Invalid,0, 1, 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 E8:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E16 E17 E2:E6 E8:E13 E18:E1048576">
       <formula1>"createBtcAddress,createWanAddress"</formula1>
     </dataValidation>
   </dataValidations>
